--- a/data/2018-proposed-expenditure.xlsx
+++ b/data/2018-proposed-expenditure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="expenditures" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="91">
   <si>
     <t>source</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>ministry-of-social-development-and-family-services</t>
+  </si>
+  <si>
+    <t>central-administrative-services,-tobago</t>
+  </si>
+  <si>
+    <t>ministry-of-national-secruity</t>
   </si>
 </sst>
 </file>
@@ -544,6 +550,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,15 +571,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -864,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C255"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,17 +889,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -3989,475 +3995,476 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="42">
         <v>18000000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="40">
         <v>38153850</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="40">
         <v>387876110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="40">
         <v>41815108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="40">
         <v>125943000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="40">
         <v>77000000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="40">
         <v>10241950</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="40">
         <v>82000000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="40">
         <v>8211160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="40">
         <v>4500000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="40">
         <v>3489865</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="40">
         <v>242184590</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="40">
         <v>1860000000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="44">
+        <v>89</v>
+      </c>
+      <c r="C15" s="40">
         <v>33000000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="40">
         <v>42000000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="40">
         <v>5608309770</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="40">
         <v>8270001550</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="40">
         <v>2775000000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="44">
+        <v>90</v>
+      </c>
+      <c r="C20" s="40">
         <v>3381131281</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="40">
         <v>286948650</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="40">
         <v>5151772967</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="40">
         <v>5105488890</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="40">
         <v>357850800</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="40">
         <v>948824390</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="40">
         <v>55864500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="40">
         <v>12000000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="40">
         <v>7989000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="40">
         <v>2830314742</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="40">
         <v>109030290</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="40">
         <v>2099371110</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="40">
         <v>2150942325</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="40">
         <v>113414760</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="40">
         <v>1409013504</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="40">
         <v>350522900</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="40">
         <v>2285980100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C37" s="40">
         <v>260872000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C38" s="40">
         <v>248483740</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="40">
         <v>281407827</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="40">
         <v>4740200</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C41" s="40">
         <v>725904362</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="43" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="48">
+      <c r="C42" s="44">
         <v>4701745300</v>
       </c>
     </row>
@@ -4465,10 +4472,10 @@
       <c r="A43" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4479,7 +4486,7 @@
       <c r="B44" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4490,7 +4497,7 @@
       <c r="B45" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="40">
         <v>36000000</v>
       </c>
     </row>
@@ -4501,7 +4508,7 @@
       <c r="B46" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C46" s="40">
         <v>1000000</v>
       </c>
     </row>
@@ -4512,7 +4519,7 @@
       <c r="B47" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="44">
+      <c r="C47" s="40">
         <v>7000000</v>
       </c>
     </row>
@@ -4523,7 +4530,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="44">
+      <c r="C48" s="40">
         <v>5000000</v>
       </c>
     </row>
@@ -4534,7 +4541,7 @@
       <c r="B49" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4545,7 +4552,7 @@
       <c r="B50" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="44">
+      <c r="C50" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4556,7 +4563,7 @@
       <c r="B51" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="44">
+      <c r="C51" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4567,7 +4574,7 @@
       <c r="B52" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="44">
+      <c r="C52" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4578,7 +4585,7 @@
       <c r="B53" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="44">
+      <c r="C53" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4589,7 +4596,7 @@
       <c r="B54" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C54" s="40">
         <v>7890000</v>
       </c>
     </row>
@@ -4600,7 +4607,7 @@
       <c r="B55" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="44">
+      <c r="C55" s="40">
         <v>315683000</v>
       </c>
     </row>
@@ -4609,9 +4616,9 @@
         <v>64</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="44">
+        <v>89</v>
+      </c>
+      <c r="C56" s="40">
         <v>10617000</v>
       </c>
     </row>
@@ -4622,7 +4629,7 @@
       <c r="B57" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="44">
+      <c r="C57" s="40">
         <v>16400000</v>
       </c>
     </row>
@@ -4633,7 +4640,7 @@
       <c r="B58" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="44">
+      <c r="C58" s="40">
         <v>87300000</v>
       </c>
     </row>
@@ -4644,7 +4651,7 @@
       <c r="B59" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="44">
+      <c r="C59" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4655,7 +4662,7 @@
       <c r="B60" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="44">
+      <c r="C60" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4664,9 +4671,9 @@
         <v>64</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="44">
+        <v>90</v>
+      </c>
+      <c r="C61" s="40">
         <v>394191000</v>
       </c>
     </row>
@@ -4677,7 +4684,7 @@
       <c r="B62" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="44">
+      <c r="C62" s="40">
         <v>22250000</v>
       </c>
     </row>
@@ -4688,7 +4695,7 @@
       <c r="B63" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="44">
+      <c r="C63" s="40">
         <v>321205000</v>
       </c>
     </row>
@@ -4699,7 +4706,7 @@
       <c r="B64" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="44">
+      <c r="C64" s="40">
         <v>198000000</v>
       </c>
     </row>
@@ -4710,7 +4717,7 @@
       <c r="B65" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="44">
+      <c r="C65" s="40">
         <v>14600000</v>
       </c>
     </row>
@@ -4721,7 +4728,7 @@
       <c r="B66" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="44">
+      <c r="C66" s="40">
         <v>24208000</v>
       </c>
     </row>
@@ -4732,7 +4739,7 @@
       <c r="B67" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="44">
+      <c r="C67" s="40">
         <v>22700000</v>
       </c>
     </row>
@@ -4743,7 +4750,7 @@
       <c r="B68" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="44">
+      <c r="C68" s="40">
         <v>500000</v>
       </c>
     </row>
@@ -4754,7 +4761,7 @@
       <c r="B69" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="44">
+      <c r="C69" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4765,7 +4772,7 @@
       <c r="B70" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="44">
+      <c r="C70" s="40">
         <v>141200000</v>
       </c>
     </row>
@@ -4776,7 +4783,7 @@
       <c r="B71" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="44">
+      <c r="C71" s="40">
         <v>11396000</v>
       </c>
     </row>
@@ -4787,7 +4794,7 @@
       <c r="B72" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="44">
+      <c r="C72" s="40">
         <v>231300000</v>
       </c>
     </row>
@@ -4798,7 +4805,7 @@
       <c r="B73" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="44">
+      <c r="C73" s="40">
         <v>192600000</v>
       </c>
     </row>
@@ -4809,7 +4816,7 @@
       <c r="B74" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="44">
+      <c r="C74" s="40">
         <v>50200000</v>
       </c>
     </row>
@@ -4820,7 +4827,7 @@
       <c r="B75" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="44">
+      <c r="C75" s="40">
         <v>87587000</v>
       </c>
     </row>
@@ -4831,7 +4838,7 @@
       <c r="B76" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="44">
+      <c r="C76" s="40">
         <v>21081000</v>
       </c>
     </row>
@@ -4842,7 +4849,7 @@
       <c r="B77" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="44">
+      <c r="C77" s="40">
         <v>37243000</v>
       </c>
     </row>
@@ -4853,7 +4860,7 @@
       <c r="B78" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="44">
+      <c r="C78" s="40">
         <v>7100000</v>
       </c>
     </row>
@@ -4864,7 +4871,7 @@
       <c r="B79" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="44">
+      <c r="C79" s="40">
         <v>89150000</v>
       </c>
     </row>
@@ -4875,7 +4882,7 @@
       <c r="B80" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="44">
+      <c r="C80" s="40">
         <v>21000000</v>
       </c>
     </row>
@@ -4886,7 +4893,7 @@
       <c r="B81" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="44">
+      <c r="C81" s="40">
         <v>45800000</v>
       </c>
     </row>
@@ -4897,18 +4904,18 @@
       <c r="B82" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="48">
+      <c r="C82" s="44">
         <v>27500000</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="50" t="s">
+      <c r="A83" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B83" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="44">
+      <c r="C83" s="40">
         <v>2063900</v>
       </c>
     </row>
@@ -4919,18 +4926,18 @@
       <c r="B84" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="44">
+      <c r="C84" s="40">
         <v>15756100</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="51" t="s">
+      <c r="A85" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B85" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C85" s="48">
+      <c r="C85" s="44">
         <v>180000</v>
       </c>
     </row>
@@ -4941,7 +4948,7 @@
       <c r="B86" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="44">
+      <c r="C86" s="40">
         <v>28053100</v>
       </c>
     </row>
@@ -4952,7 +4959,7 @@
       <c r="B87" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="44">
+      <c r="C87" s="40">
         <v>10087400</v>
       </c>
     </row>
@@ -4963,18 +4970,18 @@
       <c r="B88" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="44">
+      <c r="C88" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="51" t="s">
+      <c r="A89" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B89" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C89" s="48">
+      <c r="C89" s="44">
         <v>13500</v>
       </c>
     </row>
@@ -4985,7 +4992,7 @@
       <c r="B90" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="44">
+      <c r="C90" s="40">
         <v>171717810</v>
       </c>
     </row>
@@ -4996,7 +5003,7 @@
       <c r="B91" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="44">
+      <c r="C91" s="40">
         <v>208250500</v>
       </c>
     </row>
@@ -5007,7 +5014,7 @@
       <c r="B92" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C92" s="44">
+      <c r="C92" s="40">
         <v>2855800</v>
       </c>
     </row>
@@ -5018,18 +5025,18 @@
       <c r="B93" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C93" s="44">
+      <c r="C93" s="40">
         <v>4052000</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="51" t="s">
+      <c r="A94" s="47" t="s">
         <v>25</v>
       </c>
       <c r="B94" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C94" s="48">
+      <c r="C94" s="44">
         <v>36000000</v>
       </c>
     </row>
@@ -5040,7 +5047,7 @@
       <c r="B95" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C95" s="44">
+      <c r="C95" s="40">
         <v>24487108</v>
       </c>
     </row>
@@ -5051,7 +5058,7 @@
       <c r="B96" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C96" s="44">
+      <c r="C96" s="40">
         <v>17178000</v>
       </c>
     </row>
@@ -5062,18 +5069,18 @@
       <c r="B97" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C97" s="44">
+      <c r="C97" s="40">
         <v>150000</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="51" t="s">
+      <c r="A98" s="47" t="s">
         <v>72</v>
       </c>
       <c r="B98" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C98" s="48">
+      <c r="C98" s="44">
         <v>1000000</v>
       </c>
     </row>
@@ -5084,7 +5091,7 @@
       <c r="B99" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C99" s="44">
+      <c r="C99" s="40">
         <v>28431000</v>
       </c>
     </row>
@@ -5095,7 +5102,7 @@
       <c r="B100" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C100" s="44">
+      <c r="C100" s="40">
         <v>96698500</v>
       </c>
     </row>
@@ -5106,7 +5113,7 @@
       <c r="B101" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C101" s="44">
+      <c r="C101" s="40">
         <v>260000</v>
       </c>
     </row>
@@ -5117,18 +5124,18 @@
       <c r="B102" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C102" s="44">
+      <c r="C102" s="40">
         <v>553500</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="51" t="s">
+      <c r="A103" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B103" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C103" s="48">
+      <c r="C103" s="44">
         <v>7000000</v>
       </c>
     </row>
@@ -5139,7 +5146,7 @@
       <c r="B104" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C104" s="44">
+      <c r="C104" s="40">
         <v>41974500</v>
       </c>
     </row>
@@ -5150,7 +5157,7 @@
       <c r="B105" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="44">
+      <c r="C105" s="40">
         <v>34625500</v>
       </c>
     </row>
@@ -5161,18 +5168,18 @@
       <c r="B106" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C106" s="44">
+      <c r="C106" s="40">
         <v>400000</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="51" t="s">
+      <c r="A107" s="47" t="s">
         <v>74</v>
       </c>
       <c r="B107" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C107" s="48">
+      <c r="C107" s="44">
         <v>5000000</v>
       </c>
     </row>
@@ -5183,7 +5190,7 @@
       <c r="B108" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="44">
+      <c r="C108" s="40">
         <v>4579500</v>
       </c>
     </row>
@@ -5194,18 +5201,18 @@
       <c r="B109" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C109" s="44">
+      <c r="C109" s="40">
         <v>5647450</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="51" t="s">
+      <c r="A110" s="47" t="s">
         <v>75</v>
       </c>
       <c r="B110" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C110" s="48">
+      <c r="C110" s="44">
         <v>15000</v>
       </c>
     </row>
@@ -5216,7 +5223,7 @@
       <c r="B111" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C111" s="44">
+      <c r="C111" s="40">
         <v>34503200</v>
       </c>
     </row>
@@ -5227,18 +5234,18 @@
       <c r="B112" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C112" s="44">
+      <c r="C112" s="40">
         <v>44696800</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="51" t="s">
+      <c r="A113" s="47" t="s">
         <v>76</v>
       </c>
       <c r="B113" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="48">
+      <c r="C113" s="44">
         <v>2800000</v>
       </c>
     </row>
@@ -5249,7 +5256,7 @@
       <c r="B114" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C114" s="44">
+      <c r="C114" s="40">
         <v>3235000</v>
       </c>
     </row>
@@ -5260,18 +5267,18 @@
       <c r="B115" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C115" s="44">
+      <c r="C115" s="40">
         <v>1204000</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="51" t="s">
+      <c r="A116" s="47" t="s">
         <v>77</v>
       </c>
       <c r="B116" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="48">
+      <c r="C116" s="44">
         <v>61000</v>
       </c>
     </row>
@@ -5282,7 +5289,7 @@
       <c r="B117" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C117" s="44">
+      <c r="C117" s="40">
         <v>1731500</v>
       </c>
     </row>
@@ -5293,18 +5300,18 @@
       <c r="B118" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C118" s="44">
+      <c r="C118" s="40">
         <v>1755365</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="51" t="s">
+      <c r="A119" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B119" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="48">
+      <c r="C119" s="44">
         <v>3000</v>
       </c>
     </row>
@@ -5315,1481 +5322,1481 @@
       <c r="B120" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C120" s="44">
+      <c r="C120" s="40">
         <v>25519500</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="43" t="s">
+      <c r="A121" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B121" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="44">
+      <c r="C121" s="40">
         <v>88890140</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="43" t="s">
+      <c r="A122" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B122" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C122" s="44">
+      <c r="C122" s="40">
         <v>2564000</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="43" t="s">
+      <c r="A123" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B123" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C123" s="44">
+      <c r="C123" s="40">
         <v>125210950</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B124" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C124" s="48">
+      <c r="C124" s="44">
         <v>7890000</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B125" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C125" s="44">
+      <c r="C125" s="40">
         <v>1860000000</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="47" t="s">
+      <c r="A126" s="43" t="s">
         <v>35</v>
       </c>
       <c r="B126" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C126" s="48">
+      <c r="C126" s="44">
         <v>315683000</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="43" t="s">
+      <c r="A127" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B127" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C127" s="44">
+      <c r="C127" s="40">
         <v>10963000</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="43" t="s">
+      <c r="A128" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B128" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C128" s="44">
+      <c r="C128" s="40">
         <v>21270000</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="43" t="s">
+      <c r="A129" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B129" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C129" s="44">
+      <c r="C129" s="40">
         <v>467000</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="43" t="s">
+      <c r="A130" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B130" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C130" s="44">
+      <c r="C130" s="40">
         <v>300000</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="47" t="s">
+      <c r="A131" s="43" t="s">
         <v>79</v>
       </c>
       <c r="B131" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C131" s="48">
+      <c r="C131" s="44">
         <v>10617000</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="43" t="s">
+      <c r="A132" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C132" s="44">
+      <c r="C132" s="40">
         <v>18570000</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="43" t="s">
+      <c r="A133" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C133" s="44">
+      <c r="C133" s="40">
         <v>22297000</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="43" t="s">
+      <c r="A134" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C134" s="44">
+      <c r="C134" s="40">
         <v>1125000</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="43" t="s">
+      <c r="A135" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C135" s="44">
+      <c r="C135" s="40">
         <v>8000</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="47" t="s">
+      <c r="A136" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B136" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C136" s="48">
+      <c r="C136" s="44">
         <v>16400000</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="43" t="s">
+      <c r="A137" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B137" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C137" s="44">
+      <c r="C137" s="40">
         <v>363996360</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="43" t="s">
+      <c r="A138" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B138" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C138" s="44">
+      <c r="C138" s="40">
         <v>400009750</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="43" t="s">
+      <c r="A139" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B139" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C139" s="44">
+      <c r="C139" s="40">
         <v>15334200</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="43" t="s">
+      <c r="A140" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B140" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C140" s="44">
+      <c r="C140" s="40">
         <v>4087681980</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="43" t="s">
+      <c r="A141" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B141" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C141" s="44">
+      <c r="C141" s="40">
         <v>741287480</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="47" t="s">
+      <c r="A142" s="43" t="s">
         <v>38</v>
       </c>
       <c r="B142" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C142" s="48">
+      <c r="C142" s="44">
         <v>87300000</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="47" t="s">
+      <c r="A143" s="43" t="s">
         <v>39</v>
       </c>
       <c r="B143" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C143" s="48">
+      <c r="C143" s="44">
         <v>8270001550</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="47" t="s">
+      <c r="A144" s="43" t="s">
         <v>81</v>
       </c>
       <c r="B144" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C144" s="48">
+      <c r="C144" s="44">
         <v>2775000000</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="43" t="s">
+      <c r="A145" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B145" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C145" s="44">
+      <c r="C145" s="40">
         <v>2180633739</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="43" t="s">
+      <c r="A146" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B146" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C146" s="44">
+      <c r="C146" s="40">
         <v>818827780</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="43" t="s">
+      <c r="A147" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B147" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C147" s="44">
+      <c r="C147" s="40">
         <v>83919562</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B148" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C148" s="44">
+      <c r="C148" s="40">
         <v>297750200</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="47" t="s">
+      <c r="A149" s="43" t="s">
         <v>82</v>
       </c>
       <c r="B149" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C149" s="48">
+      <c r="C149" s="44">
         <v>394191000</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="43" t="s">
+      <c r="A150" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B150" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C150" s="44">
+      <c r="C150" s="40">
         <v>83128000</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="43" t="s">
+      <c r="A151" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B151" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C151" s="44">
+      <c r="C151" s="40">
         <v>156151150</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="43" t="s">
+      <c r="A152" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B152" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C152" s="44">
+      <c r="C152" s="40">
         <v>808000</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="43" t="s">
+      <c r="A153" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B153" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C153" s="44">
+      <c r="C153" s="40">
         <v>46861500</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="47" t="s">
+      <c r="A154" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B154" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C154" s="48">
+      <c r="C154" s="44">
         <v>22250000</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="43" t="s">
+      <c r="A155" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B155" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C155" s="44">
+      <c r="C155" s="40">
         <v>223822100</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="43" t="s">
+      <c r="A156" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B156" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C156" s="44">
+      <c r="C156" s="40">
         <v>849220500</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="43" t="s">
+      <c r="A157" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B157" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C157" s="44">
+      <c r="C157" s="40">
         <v>1877200</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="43" t="s">
+      <c r="A158" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B158" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C158" s="44">
+      <c r="C158" s="40">
         <v>4018839490</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="43" t="s">
+      <c r="A159" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B159" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C159" s="44">
+      <c r="C159" s="40">
         <v>11729600</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="47" t="s">
+      <c r="A160" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B160" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C160" s="48">
+      <c r="C160" s="44">
         <v>198000000</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="43" t="s">
+      <c r="A161" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B161" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C161" s="44">
+      <c r="C161" s="40">
         <v>35869500</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="43" t="s">
+      <c r="A162" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B162" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C162" s="44">
+      <c r="C162" s="40">
         <v>277236300</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="43" t="s">
+      <c r="A163" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B163" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C163" s="44">
+      <c r="C163" s="40">
         <v>23745000</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="43" t="s">
+      <c r="A164" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B164" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C164" s="44">
+      <c r="C164" s="40">
         <v>21000000</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="47" t="s">
+      <c r="A165" s="43" t="s">
         <v>83</v>
       </c>
       <c r="B165" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C165" s="48">
+      <c r="C165" s="44">
         <v>14600000</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="43" t="s">
+      <c r="A166" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B166" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C166" s="44">
+      <c r="C166" s="40">
         <v>50055300</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="43" t="s">
+      <c r="A167" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B167" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C167" s="44">
+      <c r="C167" s="40">
         <v>723939700</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="43" t="s">
+      <c r="A168" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B168" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C168" s="44">
+      <c r="C168" s="40">
         <v>965600</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="43" t="s">
+      <c r="A169" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B169" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C169" s="44">
+      <c r="C169" s="40">
         <v>47213790</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="43" t="s">
+      <c r="A170" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B170" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C170" s="44">
+      <c r="C170" s="40">
         <v>126650000</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="47" t="s">
+      <c r="A171" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B171" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C171" s="48">
+      <c r="C171" s="44">
         <v>24208000</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="43" t="s">
+      <c r="A172" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B172" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C172" s="44">
+      <c r="C172" s="40">
         <v>8130000</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="43" t="s">
+      <c r="A173" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B173" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C173" s="44">
+      <c r="C173" s="40">
         <v>30150500</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="43" t="s">
+      <c r="A174" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B174" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C174" s="44">
+      <c r="C174" s="40">
         <v>84000</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="43" t="s">
+      <c r="A175" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B175" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C175" s="44">
+      <c r="C175" s="40">
         <v>17500000</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="47" t="s">
+      <c r="A176" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B176" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C176" s="48">
+      <c r="C176" s="44">
         <v>22700000</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="43" t="s">
+      <c r="A177" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B177" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C177" s="44">
+      <c r="C177" s="40">
         <v>2208200</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="43" t="s">
+      <c r="A178" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B178" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C178" s="44">
+      <c r="C178" s="40">
         <v>9601800</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="43" t="s">
+      <c r="A179" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B179" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C179" s="44">
+      <c r="C179" s="40">
         <v>190000</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="47" t="s">
+      <c r="A180" s="43" t="s">
         <v>84</v>
       </c>
       <c r="B180" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C180" s="48">
+      <c r="C180" s="44">
         <v>500000</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="43" t="s">
+      <c r="A181" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B181" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C181" s="44">
+      <c r="C181" s="40">
         <v>3190600</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="43" t="s">
+      <c r="A182" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B182" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C182" s="44">
+      <c r="C182" s="40">
         <v>4769000</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="47" t="s">
+      <c r="A183" s="43" t="s">
         <v>85</v>
       </c>
       <c r="B183" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C183" s="48">
+      <c r="C183" s="44">
         <v>29400</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="43" t="s">
+      <c r="A184" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B184" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C184" s="44">
+      <c r="C184" s="40">
         <v>23482500</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="43" t="s">
+      <c r="A185" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B185" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C185" s="44">
+      <c r="C185" s="40">
         <v>252698500</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="43" t="s">
+      <c r="A186" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B186" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C186" s="44">
+      <c r="C186" s="40">
         <v>260000</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="43" t="s">
+      <c r="A187" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B187" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C187" s="44">
+      <c r="C187" s="40">
         <v>687082742</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="43" t="s">
+      <c r="A188" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B188" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C188" s="44">
+      <c r="C188" s="40">
         <v>1866791000</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="47" t="s">
+      <c r="A189" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B189" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C189" s="48">
+      <c r="C189" s="44">
         <v>141200000</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="43" t="s">
+      <c r="A190" s="39" t="s">
         <v>51</v>
       </c>
       <c r="B190" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C190" s="44">
+      <c r="C190" s="40">
         <v>31519000</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="43" t="s">
+      <c r="A191" s="39" t="s">
         <v>51</v>
       </c>
       <c r="B191" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C191" s="44">
+      <c r="C191" s="40">
         <v>64256300</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="43" t="s">
+      <c r="A192" s="39" t="s">
         <v>51</v>
       </c>
       <c r="B192" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C192" s="44">
+      <c r="C192" s="40">
         <v>681750</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="43" t="s">
+      <c r="A193" s="39" t="s">
         <v>51</v>
       </c>
       <c r="B193" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C193" s="44">
+      <c r="C193" s="40">
         <v>12573240</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="47" t="s">
+      <c r="A194" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B194" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C194" s="48">
+      <c r="C194" s="44">
         <v>11396000</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="43" t="s">
+      <c r="A195" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B195" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C195" s="44">
+      <c r="C195" s="40">
         <v>79930000</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="43" t="s">
+      <c r="A196" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B196" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C196" s="44">
+      <c r="C196" s="40">
         <v>42976500</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="43" t="s">
+      <c r="A197" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B197" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C197" s="44">
+      <c r="C197" s="40">
         <v>85000</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="43" t="s">
+      <c r="A198" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B198" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C198" s="44">
+      <c r="C198" s="40">
         <v>358248000</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="43" t="s">
+      <c r="A199" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B199" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C199" s="44">
+      <c r="C199" s="40">
         <v>1618131610</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="47" t="s">
+      <c r="A200" s="43" t="s">
         <v>52</v>
       </c>
       <c r="B200" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C200" s="48">
+      <c r="C200" s="44">
         <v>231300000</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="43" t="s">
+      <c r="A201" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B201" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C201" s="44">
+      <c r="C201" s="40">
         <v>25228760</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="43" t="s">
+      <c r="A202" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B202" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C202" s="44">
+      <c r="C202" s="40">
         <v>29812000</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="43" t="s">
+      <c r="A203" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B203" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C203" s="44">
+      <c r="C203" s="40">
         <v>75000</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="43" t="s">
+      <c r="A204" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B204" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C204" s="44">
+      <c r="C204" s="40">
         <v>48299000</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="43" t="s">
+      <c r="A205" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B205" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C205" s="44">
+      <c r="C205" s="40">
         <v>10000000</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="47" t="s">
+      <c r="A206" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B206" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C206" s="48">
+      <c r="C206" s="44">
         <v>50200000</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="43" t="s">
+      <c r="A207" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B207" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C207" s="44">
+      <c r="C207" s="40">
         <v>9344000</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="43" t="s">
+      <c r="A208" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B208" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C208" s="44">
+      <c r="C208" s="40">
         <v>16529600</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="43" t="s">
+      <c r="A209" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B209" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C209" s="44">
+      <c r="C209" s="40">
         <v>61000</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="43" t="s">
+      <c r="A210" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B210" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C210" s="44">
+      <c r="C210" s="40">
         <v>1350957704</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="43" t="s">
+      <c r="A211" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B211" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C211" s="44">
+      <c r="C211" s="40">
         <v>32121200</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="47" t="s">
+      <c r="A212" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B212" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C212" s="48">
+      <c r="C212" s="44">
         <v>87587000</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="43" t="s">
+      <c r="A213" s="39" t="s">
         <v>86</v>
       </c>
       <c r="B213" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C213" s="44">
+      <c r="C213" s="40">
         <v>35529800</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="43" t="s">
+      <c r="A214" s="39" t="s">
         <v>86</v>
       </c>
       <c r="B214" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C214" s="44">
+      <c r="C214" s="40">
         <v>63340800</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="43" t="s">
+      <c r="A215" s="39" t="s">
         <v>86</v>
       </c>
       <c r="B215" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C215" s="44">
+      <c r="C215" s="40">
         <v>648000</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="43" t="s">
+      <c r="A216" s="39" t="s">
         <v>86</v>
       </c>
       <c r="B216" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C216" s="44">
+      <c r="C216" s="40">
         <v>89417800</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="43" t="s">
+      <c r="A217" s="39" t="s">
         <v>86</v>
       </c>
       <c r="B217" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C217" s="44">
+      <c r="C217" s="40">
         <v>161586500</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="47" t="s">
+      <c r="A218" s="43" t="s">
         <v>86</v>
       </c>
       <c r="B218" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C218" s="48">
+      <c r="C218" s="44">
         <v>21081000</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="43" t="s">
+      <c r="A219" s="39" t="s">
         <v>57</v>
       </c>
       <c r="B219" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C219" s="44">
+      <c r="C219" s="40">
         <v>1880972000</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="43" t="s">
+      <c r="A220" s="39" t="s">
         <v>57</v>
       </c>
       <c r="B220" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C220" s="44">
+      <c r="C220" s="40">
         <v>354926100</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="43" t="s">
+      <c r="A221" s="39" t="s">
         <v>57</v>
       </c>
       <c r="B221" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C221" s="44">
+      <c r="C221" s="40">
         <v>28450000</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="43" t="s">
+      <c r="A222" s="39" t="s">
         <v>57</v>
       </c>
       <c r="B222" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C222" s="44">
+      <c r="C222" s="40">
         <v>21632000</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="47" t="s">
+      <c r="A223" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B223" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C223" s="48">
+      <c r="C223" s="44">
         <v>37243000</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="43" t="s">
+      <c r="A224" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B224" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C224" s="44">
+      <c r="C224" s="40">
         <v>90743000</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="43" t="s">
+      <c r="A225" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B225" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C225" s="44">
+      <c r="C225" s="40">
         <v>110410000</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="43" t="s">
+      <c r="A226" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B226" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C226" s="44">
+      <c r="C226" s="40">
         <v>372000</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="43" t="s">
+      <c r="A227" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B227" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C227" s="44">
+      <c r="C227" s="40">
         <v>59347000</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="47" t="s">
+      <c r="A228" s="43" t="s">
         <v>87</v>
       </c>
       <c r="B228" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C228" s="48">
+      <c r="C228" s="44">
         <v>7100000</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="43" t="s">
+      <c r="A229" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B229" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C229" s="44">
+      <c r="C229" s="40">
         <v>65043000</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="43" t="s">
+      <c r="A230" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B230" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C230" s="44">
+      <c r="C230" s="40">
         <v>60710700</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="43" t="s">
+      <c r="A231" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B231" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C231" s="44">
+      <c r="C231" s="40">
         <v>687000</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="43" t="s">
+      <c r="A232" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B232" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C232" s="44">
+      <c r="C232" s="40">
         <v>100353040</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="43" t="s">
+      <c r="A233" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B233" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C233" s="44">
+      <c r="C233" s="40">
         <v>21690000</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="47" t="s">
+      <c r="A234" s="43" t="s">
         <v>59</v>
       </c>
       <c r="B234" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C234" s="48">
+      <c r="C234" s="44">
         <v>89150000</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="43" t="s">
+      <c r="A235" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B235" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C235" s="44">
+      <c r="C235" s="40">
         <v>34228000</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="43" t="s">
+      <c r="A236" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B236" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C236" s="44">
+      <c r="C236" s="40">
         <v>32815545</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="43" t="s">
+      <c r="A237" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B237" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C237" s="44">
+      <c r="C237" s="40">
         <v>441000</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="43" t="s">
+      <c r="A238" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B238" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C238" s="44">
+      <c r="C238" s="40">
         <v>213923282</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="47" t="s">
+      <c r="A239" s="43" t="s">
         <v>60</v>
       </c>
       <c r="B239" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C239" s="48">
+      <c r="C239" s="44">
         <v>21000000</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="43" t="s">
+      <c r="A240" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B240" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C240" s="44">
+      <c r="C240" s="40">
         <v>2804500</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="43" t="s">
+      <c r="A241" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B241" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C241" s="44">
+      <c r="C241" s="40">
         <v>1891700</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="47" t="s">
+      <c r="A242" s="43" t="s">
         <v>61</v>
       </c>
       <c r="B242" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C242" s="48">
+      <c r="C242" s="44">
         <v>44000</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="43" t="s">
+      <c r="A243" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B243" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C243" s="44">
+      <c r="C243" s="40">
         <v>387430200</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="43" t="s">
+      <c r="A244" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B244" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C244" s="44">
+      <c r="C244" s="40">
         <v>110725462</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="43" t="s">
+      <c r="A245" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B245" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C245" s="44">
+      <c r="C245" s="40">
         <v>122000</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="43" t="s">
+      <c r="A246" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B246" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C246" s="44">
+      <c r="C246" s="40">
         <v>178189800</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="43" t="s">
+      <c r="A247" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B247" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C247" s="44">
+      <c r="C247" s="40">
         <v>49436900</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="47" t="s">
+      <c r="A248" s="43" t="s">
         <v>62</v>
       </c>
       <c r="B248" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C248" s="48">
+      <c r="C248" s="44">
         <v>45800000</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="43" t="s">
+      <c r="A249" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B249" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C249" s="44">
+      <c r="C249" s="40">
         <v>43429000</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="43" t="s">
+      <c r="A250" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B250" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C250" s="44">
+      <c r="C250" s="40">
         <v>116865100</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="43" t="s">
+      <c r="A251" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B251" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C251" s="44">
+      <c r="C251" s="40">
         <v>850000</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="43" t="s">
+      <c r="A252" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B252" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C252" s="44">
+      <c r="C252" s="40">
         <v>4506101200</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="43" t="s">
+      <c r="A253" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B253" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C253" s="44">
+      <c r="C253" s="40">
         <v>34500000</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="47" t="s">
+      <c r="A254" s="43" t="s">
         <v>88</v>
       </c>
       <c r="B254" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C254" s="48">
+      <c r="C254" s="44">
         <v>27500000</v>
       </c>
     </row>
